--- a/excel/W_文本表.xlsx
+++ b/excel/W_文本表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -144,6 +144,22 @@
   </si>
   <si>
     <t>每一位小人都是独一无二的，他们全身心的膜拜着你。期盼您推进文明的发展。他们不喜欢前往距离源世界太远的地方，有没有办法一次攀爬一层以上的地方，所以您必须激励他们，引导他们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheat Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -610,67 +626,89 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>121</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
